--- a/Forms/Last_Order.xlsx
+++ b/Forms/Last_Order.xlsx
@@ -107,9 +107,6 @@
     <t>5 V Regulator</t>
   </si>
   <si>
-    <t>VSSOP8</t>
-  </si>
-  <si>
     <t>Digikey</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/texas-instruments/TPS62163DSGR/296-29898-6-ND/2782666</t>
+  </si>
+  <si>
+    <t>WSON8</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:XFD40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="B3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42684</v>
+        <v>42685</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>24</v>
@@ -808,29 +808,29 @@
     </row>
     <row r="7" spans="1:16384" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" s="13">
         <v>2</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" ref="G7:G11" si="0">B7*F7</f>
+        <f t="shared" ref="G7" si="0">B7*F7</f>
         <v>8</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
